--- a/FichTec3.xlsx
+++ b/FichTec3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eseba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD34AA5-7919-402C-9F2A-7FC725F17814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE690472-AB81-46BE-BED7-DEACA31175B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{12DF286C-B31B-4948-A09F-15CB193401EA}"/>
   </bookViews>
@@ -661,7 +661,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -957,7 +957,7 @@
       <c r="B9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="8">
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -966,7 +966,7 @@
       <c r="E9" s="4">
         <v>884</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="8">
         <v>0</v>
       </c>
       <c r="G9" s="4">

--- a/FichTec3.xlsx
+++ b/FichTec3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eseba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE690472-AB81-46BE-BED7-DEACA31175B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA1BF4D-93E7-4761-BC14-4496DF9048B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{12DF286C-B31B-4948-A09F-15CB193401EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>Protein content</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>99.99%</t>
+  </si>
+  <si>
+    <t>0%</t>
   </si>
 </sst>
 </file>
@@ -289,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -323,6 +326,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,7 +667,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -957,8 +963,8 @@
       <c r="B9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="8">
-        <v>0</v>
+      <c r="C9" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>51</v>
@@ -966,8 +972,8 @@
       <c r="E9" s="4">
         <v>884</v>
       </c>
-      <c r="F9" s="8">
-        <v>0</v>
+      <c r="F9" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>

--- a/FichTec3.xlsx
+++ b/FichTec3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eseba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA1BF4D-93E7-4761-BC14-4496DF9048B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FE5348-ECC2-4973-8687-71C755CAFBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{12DF286C-B31B-4948-A09F-15CB193401EA}"/>
   </bookViews>
@@ -993,5 +993,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C9 F9" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/FichTec3.xlsx
+++ b/FichTec3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eseba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FE5348-ECC2-4973-8687-71C755CAFBC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54EBEA3-0988-4A50-A7FA-7C7DE10259D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{12DF286C-B31B-4948-A09F-15CB193401EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>Protein content</t>
   </si>
@@ -192,9 +192,6 @@
   </si>
   <si>
     <t>99.99%</t>
-  </si>
-  <si>
-    <t>0%</t>
   </si>
 </sst>
 </file>
@@ -327,7 +324,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -667,7 +664,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -963,8 +960,8 @@
       <c r="B9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>52</v>
+      <c r="C9" s="12">
+        <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>51</v>
@@ -972,8 +969,8 @@
       <c r="E9" s="4">
         <v>884</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>52</v>
+      <c r="F9" s="12">
+        <v>0</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -993,8 +990,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="C9 F9" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/FichTec3.xlsx
+++ b/FichTec3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eseba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54EBEA3-0988-4A50-A7FA-7C7DE10259D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C726A25-1109-47CB-BF32-D41918954B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{12DF286C-B31B-4948-A09F-15CB193401EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>Protein content</t>
   </si>
@@ -289,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -323,9 +323,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,7 +661,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -960,8 +957,8 @@
       <c r="B9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="12">
-        <v>0</v>
+      <c r="C9" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>51</v>
@@ -969,8 +966,8 @@
       <c r="E9" s="4">
         <v>884</v>
       </c>
-      <c r="F9" s="12">
-        <v>0</v>
+      <c r="F9" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>

--- a/FichTec3.xlsx
+++ b/FichTec3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eseba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C726A25-1109-47CB-BF32-D41918954B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD55DA5A-CACD-4DC9-B052-6714DBA82A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{12DF286C-B31B-4948-A09F-15CB193401EA}"/>
   </bookViews>
@@ -185,13 +185,13 @@
     <t>0.0%</t>
   </si>
   <si>
-    <t>Aceite de Canola</t>
-  </si>
-  <si>
     <t>Aceite</t>
   </si>
   <si>
-    <t>99.99%</t>
+    <t>Aceite de palma</t>
+  </si>
+  <si>
+    <t>100.0%</t>
   </si>
 </sst>
 </file>
@@ -661,7 +661,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -952,10 +952,10 @@
     </row>
     <row r="9" spans="1:11" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>48</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="4">
-        <v>1500</v>
+        <v>870</v>
       </c>
     </row>
   </sheetData>

--- a/FichTec3.xlsx
+++ b/FichTec3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eseba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD55DA5A-CACD-4DC9-B052-6714DBA82A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5058CB07-35C2-46BA-84F8-49F4B1FAE552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{12DF286C-B31B-4948-A09F-15CB193401EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>Protein content</t>
   </si>
@@ -661,7 +661,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -969,8 +969,8 @@
       <c r="F9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="4">
-        <v>0</v>
+      <c r="G9" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>

--- a/FichTec3.xlsx
+++ b/FichTec3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eseba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5058CB07-35C2-46BA-84F8-49F4B1FAE552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71DF143-D846-4ECD-92B4-E31140374378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{12DF286C-B31B-4948-A09F-15CB193401EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>Protein content</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>100.0%</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
 </sst>
 </file>
@@ -661,7 +664,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -970,10 +973,10 @@
         <v>48</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>

--- a/FichTec3.xlsx
+++ b/FichTec3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eseba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71DF143-D846-4ECD-92B4-E31140374378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0ADF6E2-FD84-49DC-990B-578F773E8343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{12DF286C-B31B-4948-A09F-15CB193401EA}"/>
   </bookViews>
@@ -664,7 +664,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.4"/>

--- a/FichTec3.xlsx
+++ b/FichTec3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eseba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0ADF6E2-FD84-49DC-990B-578F773E8343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031C7452-09C0-4A90-9313-BDAD80C7EE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{12DF286C-B31B-4948-A09F-15CB193401EA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
   <si>
     <t>Protein content</t>
   </si>
@@ -195,6 +195,24 @@
   </si>
   <si>
     <t>0.0</t>
+  </si>
+  <si>
+    <t>Harina de gaarbanzo</t>
+  </si>
+  <si>
+    <t>10.3%</t>
+  </si>
+  <si>
+    <t>22.40%</t>
+  </si>
+  <si>
+    <t>6.69%</t>
+  </si>
+  <si>
+    <t>4.86</t>
+  </si>
+  <si>
+    <t>0.492</t>
   </si>
 </sst>
 </file>
@@ -661,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F327A73A-5982-48E2-8B94-FF618D626A41}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -988,6 +1006,41 @@
         <v>870</v>
       </c>
     </row>
+    <row r="10" spans="1:11" ht="31.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="4">
+        <v>387</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="4">
+        <v>45</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="4">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
